--- a/自行编码数据.xlsx
+++ b/自行编码数据.xlsx
@@ -136,10 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>台湾省</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>直辖市</t>
     <rPh sb="0" eb="1">
       <t xml:space="preserve"> </t>
@@ -174,80 +170,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>市辖区</t>
+    <t>基隆市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新竹市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉义市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新竹县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗栗县</t>
+  </si>
+  <si>
+    <t>彰化县</t>
+  </si>
+  <si>
+    <t>南投县</t>
+  </si>
+  <si>
+    <t>云林县</t>
+  </si>
+  <si>
+    <t>嘉义县</t>
+  </si>
+  <si>
+    <t>屏东县</t>
+  </si>
+  <si>
+    <t>宜兰县</t>
+  </si>
+  <si>
+    <t>花莲县</t>
+  </si>
+  <si>
+    <t>台东县</t>
+  </si>
+  <si>
+    <t>澎湖县</t>
+  </si>
+  <si>
+    <t>金门县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连江县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市</t>
     <rPh sb="0" eb="1">
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">  </t>
     </rPh>
-    <rPh sb="1" eb="2">
-      <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>县</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">   </t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基隆市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新竹市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉义市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>县级市</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve"> </t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t xml:space="preserve"> </t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t xml:space="preserve"> </t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新竹县</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗栗县</t>
-  </si>
-  <si>
-    <t>彰化县</t>
-  </si>
-  <si>
-    <t>南投县</t>
-  </si>
-  <si>
-    <t>云林县</t>
-  </si>
-  <si>
-    <t>嘉义县</t>
-  </si>
-  <si>
-    <t>屏东县</t>
-  </si>
-  <si>
-    <t>宜兰县</t>
-  </si>
-  <si>
-    <t>花莲县</t>
-  </si>
-  <si>
-    <t>台东县</t>
-  </si>
-  <si>
-    <t>澎湖县</t>
-  </si>
-  <si>
-    <t>金门县</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连江县</t>
+    <t>台湾省</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -305,6 +296,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -324,7 +383,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -581,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -804,7 +863,7 @@
         <v>710000</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -812,7 +871,7 @@
         <v>710100</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -820,7 +879,7 @@
         <v>710101</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -828,7 +887,7 @@
         <v>710102</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -836,7 +895,7 @@
         <v>710103</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -844,7 +903,7 @@
         <v>710104</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -852,7 +911,7 @@
         <v>710105</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -860,7 +919,7 @@
         <v>710106</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -868,7 +927,7 @@
         <v>710200</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -876,7 +935,7 @@
         <v>710201</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -884,7 +943,7 @@
         <v>710202</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -892,7 +951,7 @@
         <v>710203</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -900,7 +959,7 @@
         <v>710300</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -908,7 +967,7 @@
         <v>710301</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -916,7 +975,7 @@
         <v>710302</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -924,7 +983,7 @@
         <v>710303</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -932,7 +991,7 @@
         <v>710304</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -940,7 +999,7 @@
         <v>710304</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -948,7 +1007,7 @@
         <v>710306</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -956,7 +1015,7 @@
         <v>710307</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -964,7 +1023,7 @@
         <v>710308</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -972,7 +1031,7 @@
         <v>710309</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -980,7 +1039,7 @@
         <v>710310</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -988,7 +1047,7 @@
         <v>710311</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -996,7 +1055,7 @@
         <v>710312</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1004,11 +1063,12 @@
         <v>710313</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/自行编码数据.xlsx
+++ b/自行编码数据.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\wwwroot\default\region\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\wwwroot\default\Region\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
